--- a/docs/STM32F429_IO_ASSIGN.xlsx
+++ b/docs/STM32F429_IO_ASSIGN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\智能电源监控系统\spms_disp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F1CCF7-8944-48B6-A91F-D572323E96BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED7E4FA-BD5D-4F62-AF92-588848603DDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12705" yWindow="3465" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Summary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="254">
   <si>
     <t>引脚分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,7 +109,862 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>引进分配</t>
+    <t>FMC_A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A1</t>
+  </si>
+  <si>
+    <t>FMC_A2</t>
+  </si>
+  <si>
+    <t>FMC_A3</t>
+  </si>
+  <si>
+    <t>FMC_A4</t>
+  </si>
+  <si>
+    <t>FMC_A5</t>
+  </si>
+  <si>
+    <t>FMC_A6</t>
+  </si>
+  <si>
+    <t>FMC_A7</t>
+  </si>
+  <si>
+    <t>FMC_A8</t>
+  </si>
+  <si>
+    <t>FMC_A9</t>
+  </si>
+  <si>
+    <t>FMC_A10</t>
+  </si>
+  <si>
+    <t>FMC_A11</t>
+  </si>
+  <si>
+    <t>FMC_A12</t>
+  </si>
+  <si>
+    <t>FMC_A13</t>
+  </si>
+  <si>
+    <t>FMC_A14</t>
+  </si>
+  <si>
+    <t>FMC_A15</t>
+  </si>
+  <si>
+    <t>FMC_A16</t>
+  </si>
+  <si>
+    <t>FMC_A17</t>
+  </si>
+  <si>
+    <t>FMC_A18</t>
+  </si>
+  <si>
+    <t>FMC_A19</t>
+  </si>
+  <si>
+    <t>FMC_A20</t>
+  </si>
+  <si>
+    <t>FMC_D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D1</t>
+  </si>
+  <si>
+    <t>FMC_D2</t>
+  </si>
+  <si>
+    <t>FMC_D3</t>
+  </si>
+  <si>
+    <t>FMC_D4</t>
+  </si>
+  <si>
+    <t>FMC_D5</t>
+  </si>
+  <si>
+    <t>FMC_D6</t>
+  </si>
+  <si>
+    <t>FMC_D7</t>
+  </si>
+  <si>
+    <t>FMC_D8</t>
+  </si>
+  <si>
+    <t>FMC_D9</t>
+  </si>
+  <si>
+    <t>FMC_D10</t>
+  </si>
+  <si>
+    <t>FMC_D11</t>
+  </si>
+  <si>
+    <t>FMC_D12</t>
+  </si>
+  <si>
+    <t>FMC_D13</t>
+  </si>
+  <si>
+    <t>FMC_D14</t>
+  </si>
+  <si>
+    <t>FMC_D15</t>
+  </si>
+  <si>
+    <t>FMC_D16</t>
+  </si>
+  <si>
+    <t>FMC_D17</t>
+  </si>
+  <si>
+    <t>FMC_D18</t>
+  </si>
+  <si>
+    <t>FMC_D19</t>
+  </si>
+  <si>
+    <t>FMC_D20</t>
+  </si>
+  <si>
+    <t>FMC_D21</t>
+  </si>
+  <si>
+    <t>FMC_D22</t>
+  </si>
+  <si>
+    <t>FMC_D23</t>
+  </si>
+  <si>
+    <t>FMC_D24</t>
+  </si>
+  <si>
+    <t>FMC_D25</t>
+  </si>
+  <si>
+    <t>FMC_D26</t>
+  </si>
+  <si>
+    <t>FMC_D27</t>
+  </si>
+  <si>
+    <t>FMC_D28</t>
+  </si>
+  <si>
+    <t>FMC_D29</t>
+  </si>
+  <si>
+    <t>FMC_D30</t>
+  </si>
+  <si>
+    <t>FMC_D31</t>
+  </si>
+  <si>
+    <t>PE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A21</t>
+  </si>
+  <si>
+    <t>FMC_A22</t>
+  </si>
+  <si>
+    <t>FMC_A23</t>
+  </si>
+  <si>
+    <t>FMC_A24</t>
+  </si>
+  <si>
+    <t>FMC_A25</t>
+  </si>
+  <si>
+    <t>PE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC32_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC32_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NIORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NREG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NIOWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_INTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDNWE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDNE0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDCKE0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDNRAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDNE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDCKE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_BA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_BA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_INT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_IN3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NOE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NWE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NWAIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NCE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NCE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NCE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NCE4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDNCAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NBL0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NBL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NBL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NBL3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD_R0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD_R1</t>
+  </si>
+  <si>
+    <t>LCD_R2</t>
+  </si>
+  <si>
+    <t>LCD_R3</t>
+  </si>
+  <si>
+    <t>LCD_R4</t>
+  </si>
+  <si>
+    <t>LCD_R5</t>
+  </si>
+  <si>
+    <t>LCD_R6</t>
+  </si>
+  <si>
+    <t>LCD_R7</t>
+  </si>
+  <si>
+    <t>LCD_G0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD_G1</t>
+  </si>
+  <si>
+    <t>LCD_G2</t>
+  </si>
+  <si>
+    <t>LCD_G3</t>
+  </si>
+  <si>
+    <t>LCD_G4</t>
+  </si>
+  <si>
+    <t>LCD_G5</t>
+  </si>
+  <si>
+    <t>LCD_G6</t>
+  </si>
+  <si>
+    <t>LCD_G7</t>
+  </si>
+  <si>
+    <t>LCD_B0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD_B1</t>
+  </si>
+  <si>
+    <t>LCD_B2</t>
+  </si>
+  <si>
+    <t>LCD_B3</t>
+  </si>
+  <si>
+    <t>LCD_B4</t>
+  </si>
+  <si>
+    <t>LCD_B5</t>
+  </si>
+  <si>
+    <t>LCD_B6</t>
+  </si>
+  <si>
+    <t>LCD_B7</t>
+  </si>
+  <si>
+    <t>LCD_VSYNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD_HSYNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD_DE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +988,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +998,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,16 +1032,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,218 +1335,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F51"/>
+  <dimension ref="A2:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="24.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+      <c r="A37" s="3"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+      <c r="A41" s="3"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
+      <c r="A42" s="3"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="A47" s="3"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+      <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
+      <c r="A49" s="3"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
+      <c r="A50" s="3"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="A36:A44"/>
+    <mergeCell ref="A45:A53"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -671,175 +1579,1248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D9CAE3-D432-4449-8AA8-C40E07BE0BC1}">
-  <dimension ref="A2:A47"/>
+  <dimension ref="A2:E131"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.75" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B5" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B66" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+      <c r="B67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+      <c r="B68" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+      <c r="B73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+      <c r="B74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3"/>
+      <c r="B77" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3"/>
+      <c r="B78" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+      <c r="B80" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="3"/>
+      <c r="B82" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+      <c r="B83" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+      <c r="B84" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+      <c r="B86" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+      <c r="B87" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+      <c r="B88" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
+      <c r="B89" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+      <c r="B90" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="3"/>
+      <c r="B91" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="3"/>
+      <c r="B92" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="3"/>
+      <c r="B93" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="3"/>
+      <c r="B94" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="3"/>
+      <c r="B95" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="3"/>
+      <c r="B96" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="3"/>
+      <c r="B97" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="B98" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="3"/>
+      <c r="B99" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="3"/>
+      <c r="B100" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="3"/>
+      <c r="B101" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3"/>
+      <c r="B102" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="3"/>
+      <c r="B103" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="3"/>
+      <c r="B104" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3"/>
+      <c r="B105" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3"/>
+      <c r="B106" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3"/>
+      <c r="B107" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3"/>
+      <c r="B108" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
+      <c r="B109" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="3"/>
+      <c r="B110" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="3"/>
+      <c r="B111" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="3"/>
+      <c r="B112" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="3"/>
+      <c r="B113" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="3"/>
+      <c r="B114" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="3"/>
+      <c r="B115" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="3"/>
+      <c r="B116" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="3"/>
+      <c r="B117" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="3"/>
+      <c r="B118" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="3"/>
+      <c r="B119" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="3"/>
+      <c r="B120" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="3"/>
+      <c r="B121" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="3"/>
+      <c r="B122" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="3"/>
+      <c r="B123" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="3"/>
+      <c r="B124" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="3"/>
+      <c r="B125" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="3"/>
+      <c r="B126" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="3"/>
+      <c r="B127" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="3"/>
+      <c r="B128" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3"/>
+      <c r="B129" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="3"/>
+      <c r="B130" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="3"/>
+      <c r="B131" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="A98:A131"/>
+    <mergeCell ref="A5:A32"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A40:A65"/>
+    <mergeCell ref="A66:A97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -850,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E72F0A-FC3C-4615-BB96-B2CD0755915B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
